--- a/Fundamental/project/championsleague2019/shooting.xlsx
+++ b/Fundamental/project/championsleague2019/shooting.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\project\championsleague2019\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBBEE9EF-F001-4CFC-AF66-C9551F324190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{223061B1-F497-436B-AAB3-EB96FF0F93E1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>Player</t>
   </si>
@@ -163,9 +157,6 @@
   </si>
   <si>
     <t>Monchu</t>
-  </si>
-  <si>
-    <t>Squad Total</t>
   </si>
   <si>
     <t>NED</t>
@@ -204,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -403,58 +394,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF949698"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -486,15 +431,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -511,12 +447,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,7 +510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -632,7 +562,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -826,18 +756,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9F3E58-D990-4BB2-9FFE-A568AACD4F82}">
-  <dimension ref="A1:P26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="D27" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,7 +830,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
@@ -908,40 +838,40 @@
       <c r="D2" s="2">
         <v>22</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="14">
-        <v>1</v>
-      </c>
-      <c r="H2" s="14">
-        <v>1</v>
-      </c>
-      <c r="I2" s="14">
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
         <v>100</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="11">
         <v>0.12</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="11">
         <v>0.12</v>
       </c>
-      <c r="L2" s="14">
-        <v>0</v>
-      </c>
-      <c r="M2" s="14">
-        <v>0</v>
-      </c>
-      <c r="N2" s="14">
-        <v>0</v>
-      </c>
-      <c r="O2" s="14">
-        <v>0</v>
-      </c>
-      <c r="P2" s="16">
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13">
         <v>0</v>
       </c>
     </row>
@@ -950,7 +880,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -958,40 +888,40 @@
       <c r="D3" s="2">
         <v>24</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>8</v>
       </c>
-      <c r="F3" s="15">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
         <v>3</v>
       </c>
-      <c r="H3" s="14">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14">
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
         <v>33.299999999999997</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <v>0.37</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="11">
         <v>0.12</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="11">
         <v>0.33</v>
       </c>
-      <c r="M3" s="14">
-        <v>1</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0</v>
-      </c>
-      <c r="P3" s="16">
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1000,7 +930,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1008,34 +938,34 @@
       <c r="D4" s="2">
         <v>27</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>8</v>
       </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-      <c r="P4" s="16">
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1044,7 +974,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1052,40 +982,40 @@
       <c r="D5" s="2">
         <v>32</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>7.4</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <v>3</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>30</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="11">
         <v>14</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>46.7</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <v>4.08</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="11">
         <v>1.9</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="11">
         <v>0.1</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="11">
         <v>0.21</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="11">
         <v>7</v>
       </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="16">
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1094,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1102,40 +1032,40 @@
       <c r="D6" s="2">
         <v>28</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>7.3</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>10</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>5</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>50</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11">
         <v>1.38</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="11">
         <v>0.69</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="11">
         <v>0.2</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="11">
         <v>0.4</v>
       </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0</v>
-      </c>
-      <c r="P6" s="16">
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1144,7 +1074,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -1152,40 +1082,40 @@
       <c r="D7" s="2">
         <v>25</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>7</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
         <v>4</v>
       </c>
-      <c r="H7" s="14">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14">
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
         <v>25</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1194,7 +1124,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
@@ -1202,40 +1132,40 @@
       <c r="D8" s="2">
         <v>32</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>7</v>
       </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
         <v>2</v>
       </c>
-      <c r="H8" s="14">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
         <v>50</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L8" s="14">
-        <v>0</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1244,7 +1174,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1252,38 +1182,38 @@
       <c r="D9" s="2">
         <v>31</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>5.6</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
         <v>0.18</v>
       </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14">
-        <v>0</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1292,7 +1222,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -1300,40 +1230,40 @@
       <c r="D10" s="2">
         <v>32</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>6.3</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>5</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>20</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="11">
         <v>12</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <v>60</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="11">
         <v>3.17</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="11">
         <v>1.9</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="11">
         <v>0.2</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="11">
         <v>0.33</v>
       </c>
-      <c r="N10" s="14">
-        <v>1</v>
-      </c>
-      <c r="O10" s="14">
-        <v>1</v>
-      </c>
-      <c r="P10" s="16">
+      <c r="N10" s="11">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11">
+        <v>1</v>
+      </c>
+      <c r="P10" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1342,7 +1272,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -1350,38 +1280,38 @@
       <c r="D11" s="2">
         <v>30</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>3.9</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
         <v>0.25</v>
       </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
-        <v>0</v>
-      </c>
-      <c r="P11" s="16">
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1390,7 +1320,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -1398,38 +1328,38 @@
       <c r="D12" s="2">
         <v>32</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>4.7</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
         <v>2</v>
       </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
         <v>0.43</v>
       </c>
-      <c r="K12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="14">
-        <v>0</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1438,7 +1368,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -1446,40 +1376,40 @@
       <c r="D13" s="2">
         <v>27</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14">
-        <v>1</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11">
         <v>100</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="11">
         <v>0.22</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="11">
         <v>0.22</v>
       </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-      <c r="M13" s="14">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14">
-        <v>0</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0</v>
-      </c>
-      <c r="P13" s="16">
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1488,7 +1418,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
@@ -1496,38 +1426,38 @@
       <c r="D14" s="2">
         <v>31</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <v>3.8</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
         <v>10</v>
       </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
         <v>2.61</v>
       </c>
-      <c r="K14" s="14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14">
-        <v>1</v>
-      </c>
-      <c r="O14" s="14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="16">
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11">
+        <v>1</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1536,7 +1466,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
@@ -1544,38 +1474,38 @@
       <c r="D15" s="2">
         <v>22</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>3.3</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
         <v>2</v>
       </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
         <v>0.6</v>
       </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
-        <v>0</v>
-      </c>
-      <c r="P15" s="16">
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1584,7 +1514,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -1592,34 +1522,34 @@
       <c r="D16" s="2">
         <v>22</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>3</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14">
-        <v>0</v>
-      </c>
-      <c r="K16" s="14">
-        <v>0</v>
-      </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14">
-        <v>0</v>
-      </c>
-      <c r="O16" s="14">
-        <v>0</v>
-      </c>
-      <c r="P16" s="16">
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1628,7 +1558,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
@@ -1636,38 +1566,38 @@
       <c r="D17" s="2">
         <v>25</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>3</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14">
-        <v>1</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
         <v>0.33</v>
       </c>
-      <c r="K17" s="14">
-        <v>0</v>
-      </c>
-      <c r="L17" s="14">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14">
-        <v>0</v>
-      </c>
-      <c r="O17" s="14">
-        <v>0</v>
-      </c>
-      <c r="P17" s="16">
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1676,7 +1606,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -1684,40 +1614,40 @@
       <c r="D18" s="2">
         <v>22</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <v>1.5</v>
       </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14">
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
         <v>4</v>
       </c>
-      <c r="H18" s="14">
-        <v>1</v>
-      </c>
-      <c r="I18" s="14">
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
         <v>25</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="11">
         <v>2.65</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="11">
         <v>0.66</v>
       </c>
-      <c r="L18" s="14">
-        <v>0</v>
-      </c>
-      <c r="M18" s="14">
-        <v>0</v>
-      </c>
-      <c r="N18" s="14">
-        <v>0</v>
-      </c>
-      <c r="O18" s="14">
-        <v>0</v>
-      </c>
-      <c r="P18" s="16">
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1726,7 +1656,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>30</v>
@@ -1734,40 +1664,40 @@
       <c r="D19" s="2">
         <v>16</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <v>1.3</v>
       </c>
-      <c r="F19" s="15">
-        <v>1</v>
-      </c>
-      <c r="G19" s="14">
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11">
         <v>2</v>
       </c>
-      <c r="H19" s="14">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11">
         <v>50</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="11">
         <v>1.57</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="11">
         <v>0.78</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="11">
         <v>0.5</v>
       </c>
-      <c r="M19" s="14">
-        <v>1</v>
-      </c>
-      <c r="N19" s="14">
-        <v>0</v>
-      </c>
-      <c r="O19" s="14">
-        <v>0</v>
-      </c>
-      <c r="P19" s="16">
+      <c r="M19" s="11">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1776,7 +1706,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
@@ -1784,38 +1714,38 @@
       <c r="D20" s="2">
         <v>20</v>
       </c>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
         <v>2</v>
       </c>
-      <c r="H20" s="14">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14">
-        <v>0</v>
-      </c>
-      <c r="J20" s="14">
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
         <v>1.98</v>
       </c>
-      <c r="K20" s="14">
-        <v>0</v>
-      </c>
-      <c r="L20" s="14">
-        <v>0</v>
-      </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14">
-        <v>0</v>
-      </c>
-      <c r="O20" s="14">
-        <v>0</v>
-      </c>
-      <c r="P20" s="16">
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11">
+        <v>0</v>
+      </c>
+      <c r="O20" s="11">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1824,7 +1754,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
@@ -1832,34 +1762,34 @@
       <c r="D21" s="2">
         <v>21</v>
       </c>
-      <c r="E21" s="14">
-        <v>1</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14">
-        <v>0</v>
-      </c>
-      <c r="K21" s="14">
-        <v>0</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14">
-        <v>0</v>
-      </c>
-      <c r="O21" s="14">
-        <v>0</v>
-      </c>
-      <c r="P21" s="16">
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1868,7 +1798,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>21</v>
@@ -1876,34 +1806,34 @@
       <c r="D22" s="2">
         <v>30</v>
       </c>
-      <c r="E22" s="14">
-        <v>1</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14">
-        <v>0</v>
-      </c>
-      <c r="K22" s="14">
-        <v>0</v>
-      </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14">
-        <v>0</v>
-      </c>
-      <c r="O22" s="14">
-        <v>0</v>
-      </c>
-      <c r="P22" s="16">
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1912,7 +1842,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
@@ -1920,38 +1850,38 @@
       <c r="D23" s="2">
         <v>19</v>
       </c>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14">
-        <v>1</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14">
-        <v>0</v>
-      </c>
-      <c r="J23" s="14">
-        <v>1</v>
-      </c>
-      <c r="K23" s="14">
-        <v>0</v>
-      </c>
-      <c r="L23" s="14">
-        <v>0</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14">
-        <v>0</v>
-      </c>
-      <c r="O23" s="14">
-        <v>0</v>
-      </c>
-      <c r="P23" s="16">
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1960,7 +1890,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
@@ -1968,40 +1898,40 @@
       <c r="D24" s="2">
         <v>21</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>0.9</v>
       </c>
-      <c r="F24" s="15">
-        <v>1</v>
-      </c>
-      <c r="G24" s="14">
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11">
         <v>4</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="11">
         <v>2</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="11">
         <v>50</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="11">
         <v>4.29</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="11">
         <v>2.14</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="11">
         <v>0.25</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="11">
         <v>0.5</v>
       </c>
-      <c r="N24" s="14">
-        <v>0</v>
-      </c>
-      <c r="O24" s="14">
-        <v>0</v>
-      </c>
-      <c r="P24" s="16">
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
+      <c r="O24" s="11">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2010,7 +1940,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>17</v>
@@ -2018,131 +1948,87 @@
       <c r="D25" s="4">
         <v>19</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="14">
         <v>0.1</v>
       </c>
-      <c r="F25" s="18">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17">
-        <v>0</v>
-      </c>
-      <c r="K25" s="17">
-        <v>0</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17">
-        <v>0</v>
-      </c>
-      <c r="O25" s="17">
-        <v>0</v>
-      </c>
-      <c r="P25" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12">
-        <v>9</v>
-      </c>
-      <c r="F26" s="20">
-        <v>13</v>
-      </c>
-      <c r="G26" s="12">
-        <v>101</v>
-      </c>
-      <c r="H26" s="12">
-        <v>40</v>
-      </c>
-      <c r="I26" s="12">
-        <v>39.6</v>
-      </c>
-      <c r="J26" s="12">
-        <v>11.22</v>
-      </c>
-      <c r="K26" s="12">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="L26" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="M26" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="N26" s="12">
-        <v>9</v>
-      </c>
-      <c r="O26" s="12">
-        <v>1</v>
-      </c>
-      <c r="P26" s="21">
-        <v>1</v>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://fbref.com/en/players/1bacc518/Frenkie-de-Jong" xr:uid="{180A98C8-D573-4367-A96E-8FF73864153E}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://fbref.com/en/players/4f28a6ff/Clement-Lenglet" xr:uid="{FCDD71A0-384B-4057-A4B4-BB50E6C960C2}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://fbref.com/en/players/6f51e382/Marc-Andre-ter-Stegen" xr:uid="{A8206557-0FD2-4980-B85D-582E14B6DF4D}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://fbref.com/en/players/d70ce98e/Lionel-Messi" xr:uid="{9080B001-FF86-4A80-B98E-FD578D343723}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://fbref.com/en/players/df69b544/Antoine-Griezmann" xr:uid="{E52497C8-0177-4A4E-89A6-78B0ABF58B25}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://fbref.com/en/players/d04b94db/Nelson-Semedo" xr:uid="{7502DEA2-F1B3-432F-A040-5AF4A7362D39}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://fbref.com/en/players/adfc9123/Gerard-Pique" xr:uid="{DCC77C1C-5433-4BAD-809A-50F7950A7A4C}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://fbref.com/en/players/5ab0ea87/Sergio-Busquets" xr:uid="{9623E0E2-D647-4F28-9159-D18D8E26BA24}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://fbref.com/en/players/a6154613/Luis-Suarez" xr:uid="{A0F93B65-24EC-4EDF-901A-3842F22A6EA0}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://fbref.com/en/players/4601e194/Jordi-Alba" xr:uid="{C208C848-F737-46C3-AAB5-63DB6A11821A}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://fbref.com/en/players/67cdbc0e/Arturo-Vidal" xr:uid="{3A33F140-A5F8-41DA-955E-6E4A8AFB8F00}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://fbref.com/en/players/335fa267/Sergi-Roberto" xr:uid="{C9C69590-30E5-42A3-B08D-B95D2240C096}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://fbref.com/en/players/89f951b5/Ivan-Rakitic" xr:uid="{A1D64391-B940-478E-B350-722636CAF46C}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://fbref.com/en/players/48b3dd60/Arthur-Melo" xr:uid="{CAC8D81A-4603-4CEC-9F18-8218E4403C70}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://fbref.com/en/players/24f59bb2/Junior-Firpo" xr:uid="{5E47E53F-0C59-46BF-B02D-99FB7DD37F47}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://fbref.com/en/players/3eed9821/Samuel-Umtiti" xr:uid="{033D0617-F43A-49E5-8C9A-ED994221C49D}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://fbref.com/en/players/b19db005/Ousmane-Dembele" xr:uid="{78A90F02-A49C-4AC1-B124-2A8A62CAFBE2}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://fbref.com/en/players/0ba976e4/Ansu-Fati" xr:uid="{37445A11-D7D2-4F16-9AC7-9A9F1EA4AEEE}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://fbref.com/en/players/808df563/Moussa-Wague" xr:uid="{83EC48BD-3A84-4B36-A0DF-3E5983F944EC}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://fbref.com/en/players/6c811eb7/Carles-Alena" xr:uid="{9E88735F-22A5-491B-8C79-D22A8147B3C5}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://fbref.com/en/players/a9dc785c/Neto" xr:uid="{D3DFAB54-145F-4EA5-A969-1C6670B20280}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://fbref.com/en/players/88f130ed/Jean-Clair-Todibo" xr:uid="{0C2F62D1-F793-4365-A3C5-E77866D08431}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://fbref.com/en/players/a8f21b9f/Carles-Perez" xr:uid="{1F58BBF6-D2D8-462C-B7E8-A2222F76887B}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://fbref.com/en/players/8ac501f5/Monchu" xr:uid="{1B177869-B9F1-4ADD-A970-10D784250613}"/>
-    <hyperlink ref="B2" r:id="rId25" display="https://fbref.com/en/country/NED/Netherlands-Football" xr:uid="{6130898F-7058-46AE-89F7-DEE2F68F21AD}"/>
-    <hyperlink ref="B3" r:id="rId26" display="https://fbref.com/en/country/FRA/France-Football" xr:uid="{8BB3121D-D74C-4956-BAAE-2026C51C3133}"/>
-    <hyperlink ref="B4" r:id="rId27" display="https://fbref.com/en/country/GER/Germany-Football" xr:uid="{568E9FCC-9B2D-44D4-8FB6-B80FB5535D5A}"/>
-    <hyperlink ref="B5" r:id="rId28" display="https://fbref.com/en/country/ARG/Argentina-Football" xr:uid="{FDF36DC0-2126-43D0-A92E-D09E9986BF5C}"/>
-    <hyperlink ref="B6" r:id="rId29" display="https://fbref.com/en/country/FRA/France-Football" xr:uid="{8628BAA9-5796-4617-9BC7-E904C881FFF9}"/>
-    <hyperlink ref="B7" r:id="rId30" display="https://fbref.com/en/country/POR/Portugal-Football" xr:uid="{03FFE27B-592F-4EA0-A5E4-E271500ADA14}"/>
-    <hyperlink ref="B8" r:id="rId31" display="https://fbref.com/en/country/ESP/Spain-Football" xr:uid="{37C62DDF-6825-4789-BC77-72677077F34E}"/>
-    <hyperlink ref="B9" r:id="rId32" display="https://fbref.com/en/country/ESP/Spain-Football" xr:uid="{3276EBD4-129E-4DCB-B9A4-323A44DF71F9}"/>
-    <hyperlink ref="B10" r:id="rId33" display="https://fbref.com/en/country/URU/Uruguay-Football" xr:uid="{007FC2A4-6EB3-4645-857F-431CBC7017A2}"/>
-    <hyperlink ref="B11" r:id="rId34" display="https://fbref.com/en/country/ESP/Spain-Football" xr:uid="{08A12410-C179-41C2-82D4-FF32AE662DB8}"/>
-    <hyperlink ref="B12" r:id="rId35" display="https://fbref.com/en/country/CHI/Chile-Football" xr:uid="{AB0E9803-4205-46EC-9FA0-784BBC04F08B}"/>
-    <hyperlink ref="B13" r:id="rId36" display="https://fbref.com/en/country/ESP/Spain-Football" xr:uid="{B9127A9B-3DDF-4884-99C8-25E19EEDA819}"/>
-    <hyperlink ref="B14" r:id="rId37" display="https://fbref.com/en/country/CRO/Croatia-Football" xr:uid="{C90C3E59-E650-4D6A-B795-05411A16F589}"/>
-    <hyperlink ref="B15" r:id="rId38" display="https://fbref.com/en/country/BRA/Brazil-Football" xr:uid="{5AB35845-5B34-4EB0-BA76-606D12197746}"/>
-    <hyperlink ref="B16" r:id="rId39" display="https://fbref.com/en/country/ESP/Spain-Football" xr:uid="{621B6E9D-7FBE-4FF9-A93A-962A2F82DC6D}"/>
-    <hyperlink ref="B17" r:id="rId40" display="https://fbref.com/en/country/FRA/France-Football" xr:uid="{FBFC6392-58F2-4547-B9BC-E87055299377}"/>
-    <hyperlink ref="B18" r:id="rId41" display="https://fbref.com/en/country/FRA/France-Football" xr:uid="{0A05CA84-4461-4DA8-A2D5-1558BF34DDB4}"/>
-    <hyperlink ref="B19" r:id="rId42" display="https://fbref.com/en/country/ESP/Spain-Football" xr:uid="{51B7E017-1A8C-458B-AF86-BFB92E055AD4}"/>
-    <hyperlink ref="B20" r:id="rId43" display="https://fbref.com/en/country/SEN/Senegal-Football" xr:uid="{9BEE9AED-2B4F-401C-924D-2DDA123D8B80}"/>
-    <hyperlink ref="B21" r:id="rId44" display="https://fbref.com/en/country/ESP/Spain-Football" xr:uid="{A95D3442-39D8-4380-8A8E-C505A74A3D51}"/>
-    <hyperlink ref="B22" r:id="rId45" display="https://fbref.com/en/country/BRA/Brazil-Football" xr:uid="{B4B90B2D-C6A2-42A9-B2BB-A855CB2502A5}"/>
-    <hyperlink ref="B23" r:id="rId46" display="https://fbref.com/en/country/FRA/France-Football" xr:uid="{10F5F9FF-CCF3-4561-9F0D-0D9C3E93FA8E}"/>
-    <hyperlink ref="B24" r:id="rId47" display="https://fbref.com/en/country/ESP/Spain-Football" xr:uid="{4CE0EB17-681E-4F60-A472-136B5DD76C29}"/>
-    <hyperlink ref="B25" r:id="rId48" display="https://fbref.com/en/country/ESP/Spain-Football" xr:uid="{5F3B97F8-00CB-4F37-9C0C-18F623269DC6}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://fbref.com/en/players/1bacc518/Frenkie-de-Jong"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://fbref.com/en/players/4f28a6ff/Clement-Lenglet"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://fbref.com/en/players/6f51e382/Marc-Andre-ter-Stegen"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://fbref.com/en/players/d70ce98e/Lionel-Messi"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://fbref.com/en/players/df69b544/Antoine-Griezmann"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://fbref.com/en/players/d04b94db/Nelson-Semedo"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://fbref.com/en/players/adfc9123/Gerard-Pique"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://fbref.com/en/players/5ab0ea87/Sergio-Busquets"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://fbref.com/en/players/a6154613/Luis-Suarez"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://fbref.com/en/players/4601e194/Jordi-Alba"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://fbref.com/en/players/67cdbc0e/Arturo-Vidal"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://fbref.com/en/players/335fa267/Sergi-Roberto"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://fbref.com/en/players/89f951b5/Ivan-Rakitic"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://fbref.com/en/players/48b3dd60/Arthur-Melo"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://fbref.com/en/players/24f59bb2/Junior-Firpo"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://fbref.com/en/players/3eed9821/Samuel-Umtiti"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://fbref.com/en/players/b19db005/Ousmane-Dembele"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://fbref.com/en/players/0ba976e4/Ansu-Fati"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://fbref.com/en/players/808df563/Moussa-Wague"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://fbref.com/en/players/6c811eb7/Carles-Alena"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://fbref.com/en/players/a9dc785c/Neto"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://fbref.com/en/players/88f130ed/Jean-Clair-Todibo"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://fbref.com/en/players/a8f21b9f/Carles-Perez"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://fbref.com/en/players/8ac501f5/Monchu"/>
+    <hyperlink ref="B2" r:id="rId25" display="https://fbref.com/en/country/NED/Netherlands-Football"/>
+    <hyperlink ref="B3" r:id="rId26" display="https://fbref.com/en/country/FRA/France-Football"/>
+    <hyperlink ref="B4" r:id="rId27" display="https://fbref.com/en/country/GER/Germany-Football"/>
+    <hyperlink ref="B5" r:id="rId28" display="https://fbref.com/en/country/ARG/Argentina-Football"/>
+    <hyperlink ref="B6" r:id="rId29" display="https://fbref.com/en/country/FRA/France-Football"/>
+    <hyperlink ref="B7" r:id="rId30" display="https://fbref.com/en/country/POR/Portugal-Football"/>
+    <hyperlink ref="B8" r:id="rId31" display="https://fbref.com/en/country/ESP/Spain-Football"/>
+    <hyperlink ref="B9" r:id="rId32" display="https://fbref.com/en/country/ESP/Spain-Football"/>
+    <hyperlink ref="B10" r:id="rId33" display="https://fbref.com/en/country/URU/Uruguay-Football"/>
+    <hyperlink ref="B11" r:id="rId34" display="https://fbref.com/en/country/ESP/Spain-Football"/>
+    <hyperlink ref="B12" r:id="rId35" display="https://fbref.com/en/country/CHI/Chile-Football"/>
+    <hyperlink ref="B13" r:id="rId36" display="https://fbref.com/en/country/ESP/Spain-Football"/>
+    <hyperlink ref="B14" r:id="rId37" display="https://fbref.com/en/country/CRO/Croatia-Football"/>
+    <hyperlink ref="B15" r:id="rId38" display="https://fbref.com/en/country/BRA/Brazil-Football"/>
+    <hyperlink ref="B16" r:id="rId39" display="https://fbref.com/en/country/ESP/Spain-Football"/>
+    <hyperlink ref="B17" r:id="rId40" display="https://fbref.com/en/country/FRA/France-Football"/>
+    <hyperlink ref="B18" r:id="rId41" display="https://fbref.com/en/country/FRA/France-Football"/>
+    <hyperlink ref="B19" r:id="rId42" display="https://fbref.com/en/country/ESP/Spain-Football"/>
+    <hyperlink ref="B20" r:id="rId43" display="https://fbref.com/en/country/SEN/Senegal-Football"/>
+    <hyperlink ref="B21" r:id="rId44" display="https://fbref.com/en/country/ESP/Spain-Football"/>
+    <hyperlink ref="B22" r:id="rId45" display="https://fbref.com/en/country/BRA/Brazil-Football"/>
+    <hyperlink ref="B23" r:id="rId46" display="https://fbref.com/en/country/FRA/France-Football"/>
+    <hyperlink ref="B24" r:id="rId47" display="https://fbref.com/en/country/ESP/Spain-Football"/>
+    <hyperlink ref="B25" r:id="rId48" display="https://fbref.com/en/country/ESP/Spain-Football"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
